--- a/database - circanual/SINE/Dam -SINE- R-score and p-value -all species.xlsx
+++ b/database - circanual/SINE/Dam -SINE- R-score and p-value -all species.xlsx
@@ -460,10 +460,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3600412318874953</v>
+        <v>0.5458052407168256</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3496</v>
+        <v>0.097</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -476,10 +476,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.320185179802746</v>
+        <v>0.3480655670227015</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4678</v>
+        <v>0.4364</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -492,10 +492,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5678822201093957</v>
+        <v>0.8064694927926779</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0554</v>
+        <v>0.005</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -508,10 +508,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3766896252283617</v>
+        <v>0.2210297409153466</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301</v>
+        <v>0.5964</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -524,10 +524,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4045003063756708</v>
+        <v>0.4126116452565669</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2702</v>
+        <v>0.2736</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -540,10 +540,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4825093270187907</v>
+        <v>0.2408112954170544</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1822</v>
+        <v>0.571</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3858502440371142</v>
+        <v>0.3064906946325193</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3042</v>
+        <v>0.4388</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -572,10 +572,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6122638342143564</v>
+        <v>0.2198633321013196</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.598</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7331662009787977</v>
+        <v>0.7331662009787872</v>
       </c>
       <c r="C10" t="n">
         <v>0.015</v>
@@ -604,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3088439104527702</v>
+        <v>0.3088447674041887</v>
       </c>
       <c r="C11" t="n">
         <v>0.436</v>
@@ -620,10 +620,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4679589988120996</v>
+        <v>0.37938490378046</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3076</v>
+        <v>0.3082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -636,10 +636,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2426889159642243</v>
+        <v>0.5136129747921936</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.1044</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5337383871670528</v>
+        <v>0.5337383871673723</v>
       </c>
       <c r="C14" t="n">
         <v>0.1206</v>
@@ -668,10 +668,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6532807972698851</v>
+        <v>0.5546863258453335</v>
       </c>
       <c r="C15" t="n">
-        <v>0.053</v>
+        <v>0.117</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5566320011129666</v>
+        <v>0.5566320011137155</v>
       </c>
       <c r="C16" t="n">
         <v>0.0988</v>
@@ -700,10 +700,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2442433283700739</v>
+        <v>0.4556802032034459</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5918</v>
+        <v>0.198</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2823954224284086</v>
+        <v>0.2823954224290043</v>
       </c>
       <c r="C18" t="n">
         <v>0.468</v>
@@ -732,10 +732,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2092726621947834</v>
+        <v>0.2731374297732805</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6133999999999999</v>
+        <v>0.5002</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2078368327104763</v>
+        <v>0.207834801770323</v>
       </c>
       <c r="C20" t="n">
         <v>0.6506</v>
@@ -764,10 +764,10 @@
         <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08681134008928208</v>
+        <v>0.3834534252431089</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8878</v>
+        <v>0.3094</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -780,10 +780,10 @@
         <v>9</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4363419845373539</v>
+        <v>0.3913118012847579</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2296</v>
+        <v>0.2868</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -796,10 +796,10 @@
         <v>10</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3964788478478042</v>
+        <v>0.323285291446826</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2832</v>
+        <v>0.3838</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -812,10 +812,10 @@
         <v>11</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8873171195725921</v>
+        <v>0.602495979731159</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -828,10 +828,10 @@
         <v>12</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4819946906007407</v>
+        <v>0.3947337793767236</v>
       </c>
       <c r="C25" t="n">
-        <v>0.17</v>
+        <v>0.2766</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4663479941316414</v>
+        <v>0.4663479941316473</v>
       </c>
       <c r="C26" t="n">
         <v>0.1722</v>
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1825337328822203</v>
+        <v>0.1825341821713447</v>
       </c>
       <c r="C27" t="n">
         <v>0.6948</v>
@@ -876,10 +876,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9529512555076659</v>
+        <v>0.4751937939455811</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.1672</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -892,10 +892,10 @@
         <v>4</v>
       </c>
       <c r="B29" t="n">
-        <v>0.570767508471965</v>
+        <v>0.796691691491339</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0896</v>
+        <v>0.002</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -908,10 +908,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2778265637526621</v>
+        <v>0.3414172147998414</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4968</v>
+        <v>0.3732</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>6</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4219235313390269</v>
+        <v>0.4219235313393147</v>
       </c>
       <c r="C31" t="n">
         <v>0.2464</v>
@@ -940,7 +940,7 @@
         <v>7</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6524575973270257</v>
+        <v>0.6524575973270185</v>
       </c>
       <c r="C32" t="n">
         <v>0.0314</v>
@@ -956,7 +956,7 @@
         <v>8</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5485512112100028</v>
+        <v>0.5485512112450766</v>
       </c>
       <c r="C33" t="n">
         <v>0.1112</v>
@@ -972,10 +972,10 @@
         <v>9</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8373833523561225</v>
+        <v>0.8264148880514447</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0066</v>
+        <v>0.0064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -988,10 +988,10 @@
         <v>10</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1049731648087788</v>
+        <v>0.6500620682020266</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8462</v>
+        <v>0.0538</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1004,10 +1004,10 @@
         <v>11</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7201892081245342</v>
+        <v>0.450219407793248</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0324</v>
+        <v>0.2124</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>12</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4307506625842896</v>
+        <v>0.4307506625847745</v>
       </c>
       <c r="C37" t="n">
         <v>0.234</v>
@@ -1036,10 +1036,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8619941699858862</v>
+        <v>0.7416438602584674</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0028</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1052,10 +1052,10 @@
         <v>2</v>
       </c>
       <c r="B39" t="n">
-        <v>0.821413902788367</v>
+        <v>0.8727007573543051</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0066</v>
+        <v>0.0018</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1068,10 +1068,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6895527403114208</v>
+        <v>0.701771771774514</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0374</v>
+        <v>0.0168</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
         <v>4</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8430915898035468</v>
+        <v>0.8870233464838464</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0038</v>
+        <v>0.0004</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1100,10 +1100,10 @@
         <v>5</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6998276700632048</v>
+        <v>0.5876373684466085</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0164</v>
+        <v>0.0554</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1116,10 +1116,10 @@
         <v>6</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4747604133251033</v>
+        <v>0.5142562494373282</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1768</v>
+        <v>0.1296</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1132,10 +1132,10 @@
         <v>7</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7500283760320088</v>
+        <v>0.7723826489113075</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0184</v>
+        <v>0.0216</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1148,10 +1148,10 @@
         <v>8</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7619247792595454</v>
+        <v>0.6780106862341854</v>
       </c>
       <c r="C45" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.036</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1164,10 +1164,10 @@
         <v>9</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8956133838389621</v>
+        <v>0.9520308115834178</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0008</v>
+        <v>0.0002</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
         <v>10</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8535744548695864</v>
+        <v>0.9380262370838617</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0028</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1196,10 +1196,10 @@
         <v>11</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5818817620252438</v>
+        <v>0.7464901978775679</v>
       </c>
       <c r="C48" t="n">
-        <v>0.09520000000000001</v>
+        <v>0.0118</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1212,10 +1212,10 @@
         <v>12</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7409820355420068</v>
+        <v>0.9147445028289136</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0026</v>
+        <v>0</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1228,10 +1228,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4376360612373241</v>
+        <v>0.6125399490221091</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2294</v>
+        <v>0.0624</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8691851889769852</v>
+        <v>0.8691851889770154</v>
       </c>
       <c r="C51" t="n">
         <v>0.003</v>
@@ -1260,10 +1260,10 @@
         <v>3</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6026111367070673</v>
+        <v>0.8204637048782727</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0706</v>
+        <v>0.0058</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1276,10 +1276,10 @@
         <v>4</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3591583396777746</v>
+        <v>0.474677854314078</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3424</v>
+        <v>0.162</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7209068397526598</v>
+        <v>0.7209068397541959</v>
       </c>
       <c r="C54" t="n">
         <v>0.012</v>
@@ -1308,7 +1308,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="n">
-        <v>0.64118272167889</v>
+        <v>0.6411827216788447</v>
       </c>
       <c r="C55" t="n">
         <v>0.0606</v>
@@ -1324,10 +1324,10 @@
         <v>7</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5427988961312011</v>
+        <v>0.4266408426218514</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1104</v>
+        <v>0.224</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8429892130471824</v>
+        <v>0.8429891492133741</v>
       </c>
       <c r="C57" t="n">
         <v>0.0005999999999999999</v>
@@ -1356,10 +1356,10 @@
         <v>9</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7813933389132143</v>
+        <v>0.7216061773617016</v>
       </c>
       <c r="C58" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0176</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1372,10 +1372,10 @@
         <v>10</v>
       </c>
       <c r="B59" t="n">
-        <v>0.3365099783481901</v>
+        <v>0.7600256746629366</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3878</v>
+        <v>0.0058</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1388,10 +1388,10 @@
         <v>11</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6845931023193093</v>
+        <v>0.6231118103402581</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0378</v>
+        <v>0.0658</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1404,10 +1404,10 @@
         <v>12</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9062684377201961</v>
+        <v>0.910809913012913</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5611339440132892</v>
+        <v>0.6963894764566477</v>
       </c>
       <c r="C62" t="n">
-        <v>0.094</v>
+        <v>0.0104</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1436,10 +1436,10 @@
         <v>2</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9207135489130914</v>
+        <v>0.5174663796322966</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0016</v>
+        <v>0.128</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1452,10 +1452,10 @@
         <v>3</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6078610463610187</v>
+        <v>0.6109681791228867</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0392</v>
+        <v>0.031</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1468,10 +1468,10 @@
         <v>4</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5381723679791974</v>
+        <v>0.664792649551291</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0982</v>
+        <v>0.037</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         <v>5</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6537551802389547</v>
+        <v>0.35313428578888</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0562</v>
+        <v>0.3594</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1500,10 +1500,10 @@
         <v>6</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7288255089733608</v>
+        <v>0.7955098903480606</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0134</v>
+        <v>0.007</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1516,10 +1516,10 @@
         <v>7</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6018672276020661</v>
+        <v>0.6235094608519526</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08160000000000001</v>
+        <v>0.0622</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1532,10 +1532,10 @@
         <v>8</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6818465686289875</v>
+        <v>0.8483689174617921</v>
       </c>
       <c r="C69" t="n">
-        <v>0.049</v>
+        <v>0.0064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1548,10 +1548,10 @@
         <v>9</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7423988420450969</v>
+        <v>0.8470011616936455</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0208</v>
+        <v>0.0052</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1564,10 +1564,10 @@
         <v>10</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8559315127294553</v>
+        <v>0.8297579617262472</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0036</v>
+        <v>0.0026</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1580,10 +1580,10 @@
         <v>11</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7165655997981442</v>
+        <v>0.7410192552843176</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0058</v>
+        <v>0.0092</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
         <v>12</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7761922192716357</v>
+        <v>0.4700105803614207</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0126</v>
+        <v>0.1906</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
